--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>TG102SE</t>
+  </si>
+  <si>
+    <t>Vietcom</t>
   </si>
 </sst>
 </file>
@@ -388,6 +391,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,9 +416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,16 +717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -829,16 +832,16 @@
       <c r="H8" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -939,16 +942,16 @@
       <c r="H18" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1049,16 +1052,16 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1174,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1193,22 +1196,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1312,23 +1315,23 @@
       <c r="G9" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1371,7 +1374,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="22">
+      <c r="G20" s="14">
         <v>1</v>
       </c>
       <c r="H20" s="9"/>
@@ -1380,12 +1383,20 @@
       <c r="A21" s="8">
         <v>2</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Vietcom</t>
+  </si>
+  <si>
+    <t>Taris SG</t>
+  </si>
+  <si>
+    <t>Thiếu linh kiện thay thế</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1403,13 +1409,25 @@
       <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="8">
+        <v>25</v>
+      </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="E22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">

--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Thiếu linh kiện thay thế</t>
+  </si>
+  <si>
+    <t>PhamNgocCuong</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1187,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1197,7 @@
     <col min="3" max="3" width="14.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="22" style="6" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="24" style="6" customWidth="1"/>
     <col min="8" max="8" width="28" style="6" customWidth="1"/>
     <col min="9" max="13" width="15" style="6" customWidth="1"/>
@@ -1433,25 +1436,45 @@
       <c r="A23" s="8">
         <v>4</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>5</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8">
+        <v>20</v>
+      </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">

--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>PhamNgocCuong</t>
+  </si>
+  <si>
+    <t>Anh Tuan BG</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1190,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1480,12 +1483,20 @@
       <c r="A25" s="8">
         <v>6</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 2/Báo cáo công việc - Tung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Anh Tuan BG</t>
+  </si>
+  <si>
+    <t>Kim Long</t>
+  </si>
+  <si>
+    <t>TG102</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1326,14 +1332,14 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1351,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>51</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -1391,7 +1397,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2</v>
       </c>
@@ -1411,7 +1417,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>3</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>4</v>
       </c>
@@ -1455,7 +1461,7 @@
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>5</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>6</v>
       </c>
@@ -1499,133 +1505,197 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>7</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="8">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>8</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>9</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>10</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>11</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>12</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
+        <v>3</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>3</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>15</v>
+      </c>
+      <c r="K32" s="8">
+        <v>8</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="8">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8">
+        <v>2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>3</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="A35" s="8">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1641,10 +1711,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1656,155 +1726,59 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="M37" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="J38" s="8">
+        <v>5</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="8">
+        <v>1</v>
+      </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>5</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>6</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>7</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8">
-        <v>2</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>8</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>9</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>10</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
